--- a/biology/Médecine/1470_en_santé_et_médecine/1470_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1470_en_santé_et_médecine/1470_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1470_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1470_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1470 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1470_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1470_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mehmet le Conquérant fait construire un hôpital à Istanbul[1].
-Construction au Caire d'un hôpital et d'une école de médecine[2].
-Fondation de l'apothicairerie de la Ca' Granda de Milan[3].
-Fondation d'un hôtel-Dieu à Istres, en Provence[4].
-Jusqu'alors privée de locaux, la faculté de médecine de Paris s'installe à l'angle des rues de la Bûcherie et des Rats, dans une maison acquise grâce à un don fait en 1454 par Jacques Despars (1380-1458), Premier médecin du roi Charles VII[5],[6].
-Selon Gabriel Naudé, pour emprunter des ouvrages de Rhazès (865-925) à la faculté de médecine de Paris, le roi Louis XI est obligé de déposer en gage une partie de sa vaisselle[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mehmet le Conquérant fait construire un hôpital à Istanbul.
+Construction au Caire d'un hôpital et d'une école de médecine.
+Fondation de l'apothicairerie de la Ca' Granda de Milan.
+Fondation d'un hôtel-Dieu à Istres, en Provence.
+Jusqu'alors privée de locaux, la faculté de médecine de Paris s'installe à l'angle des rues de la Bûcherie et des Rats, dans une maison acquise grâce à un don fait en 1454 par Jacques Despars (1380-1458), Premier médecin du roi Charles VII,.
+Selon Gabriel Naudé, pour emprunter des ouvrages de Rhazès (865-925) à la faculté de médecine de Paris, le roi Louis XI est obligé de déposer en gage une partie de sa vaisselle.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1470_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1470_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1470-1500 : Le Canon d'Avicenne est réédité seize fois ; il le sera vingt fois au cours du XVIe siècle[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1470-1500 : Le Canon d'Avicenne est réédité seize fois ; il le sera vingt fois au cours du XVIe siècle.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1470_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1470_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Eucharius Rösslin (mort en 1526), médecin et apothicaire à Fribourg en Allemagne, surtout connu comme auteur d'un des premiers ouvrages d'obstétrique jamais publiés, « Le Jardin des roses des femmes enceintes et des sages-femmes » (Der schwangeren Frauen und Hebammen Rosengarten[9]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eucharius Rösslin (mort en 1526), médecin et apothicaire à Fribourg en Allemagne, surtout connu comme auteur d'un des premiers ouvrages d'obstétrique jamais publiés, « Le Jardin des roses des femmes enceintes et des sages-femmes » (Der schwangeren Frauen und Hebammen Rosengarten).</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1470_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1470_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6 septembre : Giovanni Antonio da Faye (it)[10] (né en 1409), apothicaire toscan, auteur d'une autobiographie et d'une chronique qui ont fait l'objet de plusieurs études historiques ou linguistiques, depuis leur publication en 1904 et 1874[11].
-Guigone de Salins (née en 1403), femme de Nicolas Rolin avec qui elle a fondé en 1443 les hospices de Beaune que, devenue veuve, elle a dirigé de 1462 à sa mort[12].
-Vers 1470 : Johann de Ketham (de) (né vers 1415[13]), médecin allemand, éditeur de traités médicaux recueillis dans le Fasciculus medicinae (en), ouvrage posthume publié à Venise en 1491 et premier livre imprimé qui contienne des illustrations anatomiques[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 septembre : Giovanni Antonio da Faye (it) (né en 1409), apothicaire toscan, auteur d'une autobiographie et d'une chronique qui ont fait l'objet de plusieurs études historiques ou linguistiques, depuis leur publication en 1904 et 1874.
+Guigone de Salins (née en 1403), femme de Nicolas Rolin avec qui elle a fondé en 1443 les hospices de Beaune que, devenue veuve, elle a dirigé de 1462 à sa mort.
+Vers 1470 : Johann de Ketham (de) (né vers 1415), médecin allemand, éditeur de traités médicaux recueillis dans le Fasciculus medicinae (en), ouvrage posthume publié à Venise en 1491 et premier livre imprimé qui contienne des illustrations anatomiques.</t>
         </is>
       </c>
     </row>
